--- a/KUDIR/KUDIR/ReportTemplates/ПодоходныйНалог.xlsx
+++ b/KUDIR/KUDIR/ReportTemplates/ПодоходныйНалог.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Курсач\KUDIR\KUDIR\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$9:$12</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Месяц</t>
   </si>
@@ -75,13 +78,28 @@
   </si>
   <si>
     <t>К выплате за месяц (гр. 5 - гр. 14)</t>
+  </si>
+  <si>
+    <t>Подоходный налог с физических лиц</t>
+  </si>
+  <si>
+    <t>Карточка лицевого счета:</t>
+  </si>
+  <si>
+    <t>фамилия, собственное имя, отчество</t>
+  </si>
+  <si>
+    <t>документы, подтверждающие право на вычеты</t>
+  </si>
+  <si>
+    <t>дата и номер договора, условия договора</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +116,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -107,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -130,11 +156,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -144,6 +188,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,9 +512,11 @@
     <col min="15" max="15" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+    <row r="1" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -474,11 +538,13 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -497,11 +563,13 @@
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -520,35 +588,21 @@
       <c r="U3" s="1"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -557,41 +611,23 @@
       <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="2"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -599,22 +635,22 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -623,51 +659,23 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>6</v>
-      </c>
-      <c r="G7" s="3">
-        <v>7</v>
-      </c>
-      <c r="H7" s="3">
-        <v>8</v>
-      </c>
-      <c r="I7" s="3">
-        <v>9</v>
-      </c>
-      <c r="J7" s="3">
-        <v>10</v>
-      </c>
-      <c r="K7" s="3">
-        <v>11</v>
-      </c>
-      <c r="L7" s="3">
-        <v>12</v>
-      </c>
-      <c r="M7" s="3">
-        <v>13</v>
-      </c>
-      <c r="N7" s="3">
-        <v>14</v>
-      </c>
-      <c r="O7" s="3">
-        <v>15</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -678,9 +686,6 @@
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -699,21 +704,35 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -722,21 +741,41 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="3"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -744,22 +783,22 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+    <row r="11" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -768,21 +807,51 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2">
+        <v>7</v>
+      </c>
+      <c r="H12" s="2">
+        <v>8</v>
+      </c>
+      <c r="I12" s="2">
+        <v>9</v>
+      </c>
+      <c r="J12" s="2">
+        <v>10</v>
+      </c>
+      <c r="K12" s="2">
+        <v>11</v>
+      </c>
+      <c r="L12" s="2">
+        <v>12</v>
+      </c>
+      <c r="M12" s="2">
+        <v>13</v>
+      </c>
+      <c r="N12" s="2">
+        <v>14</v>
+      </c>
+      <c r="O12" s="2">
+        <v>15</v>
+      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -997,27 +1066,183 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:F6"/>
+  <mergeCells count="25">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O9:O11"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>